--- a/TPYBoard v1.1/code/python微电脑鼠课程.xlsx
+++ b/TPYBoard v1.1/code/python微电脑鼠课程.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28440" windowHeight="10710"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>python语言简介、开发环境搭建、连接微电脑鼠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +176,30 @@
   </si>
   <si>
     <t>使微电脑鼠完成走迷宫任务，进行比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外设驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +261,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +551,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
